--- a/classification/droptc/sentence/drone-sbert/freeze/14298463/prediction.xlsx
+++ b/classification/droptc/sentence/drone-sbert/freeze/14298463/prediction.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:F210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,22 +441,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>label_name</t>
+          <t>sentence</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>labelidx</t>
+          <t>label</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>predidx</t>
+          <t>pred</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>pred_name</t>
+          <t>verdict</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>prob</t>
         </is>
       </c>
     </row>
@@ -468,3155 +473,5848 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>A passenger aircraft is nearby.</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.9998974800109863</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
+          <t>A passenger aircraft is nearby. Fly with caution</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>['Normal', 'ParamViolation']</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E3" t="b">
+        <v>1</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.9998596906661987</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ActiveTrack Flight Paused</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Account not logged in.</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E4" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.999889612197876</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Flight altitude and distance restricted to nnn and nnn.</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>ParamViolation</t>
+        </is>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.9996683597564697</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
+          <t>Account not logged in. Flight altitude and distance restricted to nnn and nnn. Check and log in</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Check and log in</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E6" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.9998822212219238</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>ActiveTrack Flight Paused</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E7" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.9998931884765625</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Aircraft Core Board Overheated</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>Aircraft ActiveTrack available at max speed.</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>['Normal', 'HardwareFault']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.9999123811721802</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
+          <t>Aircraft ActiveTrack available at max speed. Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.9998925924301147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Aircraft flight control unlocked</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Aircraft ActiveTrack available at max speed.</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.9999123811721802</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
+          <t>Aircraft ActiveTrack available at max speed. When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>['Normal', 'RegulationViolation']</t>
+          <t>When exceeding nnn, Obstacle Avoidance is not available</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 1, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.9999040365219116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Aircraft ActiveTrack max speed of nnn and Obstacle Avoidance functions normally</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.999920129776001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Aircraft Core Board Overheated</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.999602735042572</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Aircraft is returning to the starting point</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Aircraft entered Fixed-Wing Mode.</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9999045133590698</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Aircraft out of Range</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>['ParamViolation']</t>
+          <t>Current flight speed is nnn.</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E15" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.9998956918716431</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
+          <t>Aircraft entered Fixed-Wing Mode. Current flight speed is nnn. Press C2 to exit</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>['Normal', 'RegulationViolation']</t>
+          <t>Press C2 to exit</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 1, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9998786449432373</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Arrived at Start Point. Starting Waypoint Mission</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Aircraft flight control unlocked</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9998812675476074</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Auto landing initiated</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Aircraft in Restricted Zones.</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>RegulationViolation</t>
+        </is>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9994372725486755</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Auxiliary Bottom Light turned off</t>
+          <t>Aircraft in Restricted Zones. Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Check map to find Recommended Zones</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E19" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9999022483825684</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Backward Obstacle Sensing is not functioning.</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover.</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>['SoftwareFault']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9999194145202637</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Battery cell broken, please replace the battery</t>
+          <t>Aircraft is in Attitude mode, so that it will not hover. Please fly with caution.</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>Please fly with caution.</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E21" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9998908042907715</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Battery error. Aircraft returning to home automatically</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>Aircraft is in Tripod Mode.</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E22" t="b">
+        <v>1</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9999054670333862</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Battery power low. Check battery status and charge or warm up battery</t>
+          <t>Aircraft is in Tripod Mode. Exit this mode and try again</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>Exit this mode and try again</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E23" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.9998999834060669</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cache Space Full</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>Aircraft is returning to the starting point</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>['Normal', 'HardwareFault']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E24" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.9999052286148071</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>Aircraft out of Range</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>ParamViolation</t>
+        </is>
+      </c>
+      <c r="E25" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.9996349811553955</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Camera busy, cannot enter playback</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>Approaching a No-Fly Zone.</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>RegulationViolation</t>
+        </is>
+      </c>
+      <c r="E26" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.9974944591522217</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>['SoftwareFault', 'HardwareFault']</t>
+          <t>RTH may be affected.</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 1]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E27" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.9999008178710938</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Cannot start Return to Home due to weak GPS signal</t>
+          <t>Approaching a No-Fly Zone. RTH may be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>['Normal', 'SoftwareFault']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E28" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.9998596906661987</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Cannot start Self-Timer. Exposure time is too long</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>Arrived at Start Point.</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E29" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.9998936653137207</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
+          <t>Arrived at Start Point. Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>Starting Waypoint Mission</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E30" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" t="n">
+        <v>0.9998818635940552</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Cannot track subject: No image. Please retry</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault', 'SurroundingEnvironment']</t>
+          <t>Auto landing initiated</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 1]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E31" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0.9998595714569092</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault', 'SurroundingEnvironment']</t>
+          <t>Auxiliary Bottom Light turned off</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 1]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.9998948574066162</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Backward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="E33" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.9997047781944275</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Compass Error</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>Battery cell broken, please replace the battery</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>['Normal', 'HardwareFault']</t>
-        </is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E34" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0.9996328353881836</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Compass Error. Compass Error. Compass disconnected</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>Battery error.</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>['Normal', 'HardwareFault']</t>
-        </is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E35" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0.9994988441467285</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
+          <t>Battery error. Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault', 'SurroundingEnvironment']</t>
+          <t>Aircraft returning to home automatically</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E36" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" t="n">
+        <v>0.9998916387557983</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Compass abnormal. Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>Battery power low.</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E37" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" t="n">
+        <v>0.9995576739311218</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Compass error, calibration required</t>
+          <t>Battery power low. Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>Check battery status and charge or warm up battery</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E38" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0.9999139308929443</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Compass initialization failed. Restart aircraft</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>Cache Space Full</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E39" t="b">
+        <v>1</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.9982545971870422</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>Calibration subject is too close.</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="E40" t="b">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0.9996989965438843</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Critical low battery. Aircraft landing automatically</t>
+          <t>Calibration subject is too close. Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>Recalibrate using a subject that is farther away</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0.9999125003814697</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Critical low battery. Return to home or land promptly</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>Camera busy, cannot enter playback</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="E42" t="b">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
+        <v>0.7651795744895935</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>Cannot enable Intelligent Flight Mode</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0.9996490478515625</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
+          <t>Cannot enable Intelligent Flight Mode: Low Battery</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>Low Battery</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E44" t="b">
+        <v>1</v>
+      </c>
+      <c r="F44" t="n">
+        <v>0.9993901252746582</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Critically Low Voltage. Aircraft will land</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>Cannot start Return to Home due to weak GPS signal</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="E45" t="b">
+        <v>1</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.9997500777244568</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Critically low power. Aircraft is landing</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>Cannot start Self-Timer.</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="E46" t="b">
+        <v>1</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.9996663331985474</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 15.</t>
+          <t>Cannot start Self-Timer. Exposure time is too long</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Exposure time is too long</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>ParamViolation</t>
+        </is>
+      </c>
+      <c r="E47" t="b">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0.9313526749610901</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 17.</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Cannot switch flight mode.</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="E48" t="b">
+        <v>1</v>
+      </c>
+      <c r="F48" t="n">
+        <v>0.9996349811553955</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 30.</t>
+          <t>Cannot switch flight mode. Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Turn on "Multiple Flight Modes" to enable Atti and Sport Modes.</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E49" t="b">
+        <v>1</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0.9999207258224487</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 45.</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Cannot track subject</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="E50" t="b">
+        <v>1</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.9994809031486511</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 46.</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>No image</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="E51" t="b">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
+        <v>0.9992108345031738</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 65.</t>
+          <t>Cannot track subject: No image. Please retry</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Please retry</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.9998563528060913</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Disable SD card read and write protection or change card</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Cannot track subject</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="E53" t="b">
+        <v>1</v>
+      </c>
+      <c r="F53" t="n">
+        <v>0.9994809031486511</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Downlink Lost.</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>['CommunicationIssue']</t>
+          <t>Subject too Large</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 1, 0]</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="E54" t="b">
+        <v>0</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.9994925260543823</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Downlink Restored (after 0m 2.9s).</t>
+          <t>Cannot track subject: Subject too Large. Move Away and retry</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Move Away and retry</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E55" t="b">
+        <v>1</v>
+      </c>
+      <c r="F55" t="n">
+        <v>0.9998924732208252</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Drone is Vibrating</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Color display in the Liveview has been enhanced.</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E56" t="b">
+        <v>1</v>
+      </c>
+      <c r="F56" t="n">
+        <v>0.9999157190322876</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
+          <t>Color display in the Liveview has been enhanced. Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Videos and photos will still be shot in D-Log mode</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E57" t="b">
+        <v>1</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0.9999196529388428</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
+          <t>Compass abnormal. Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>['SoftwareFault', 'ParamViolation']</t>
+          <t>Compass abnormal.</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 0, 0, 1]</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E58" t="b">
+        <v>1</v>
+      </c>
+      <c r="F58" t="n">
+        <v>0.9995195865631104</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Exit Backward Sensing system, Ambient Light is too weak</t>
+          <t>Compass abnormal. Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft.</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E59" t="b">
+        <v>1</v>
+      </c>
+      <c r="F59" t="n">
+        <v>0.9999200105667114</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Exited Visual Avoidance System.</t>
+          <t>Compass abnormal. Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>The ground or walls may contain metal.</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E60" t="b">
+        <v>1</v>
+      </c>
+      <c r="F60" t="n">
+        <v>0.9999092817306519</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Exiting GPS mode: Unknown Error</t>
+          <t>Compass abnormal. Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>Move away from sources of interference before attempting flight.</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E61" t="b">
+        <v>1</v>
+      </c>
+      <c r="F61" t="n">
+        <v>0.999913215637207</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
+          <t>Compass abnormal. Solution: 1. Ensure there are no magnets or metal objects near the aircraft. The ground or walls may contain metal. Move away from sources of interference before attempting flight. 2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>['Normal', 'ParamViolation']</t>
+          <t>2. Calibrate Compass Before Takeoff</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E62" t="b">
+        <v>1</v>
+      </c>
+      <c r="F62" t="n">
+        <v>0.999909520149231</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing is not functioning.</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>Compass Error</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>['SoftwareFault']</t>
-        </is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E63" t="b">
+        <v>1</v>
+      </c>
+      <c r="F63" t="n">
+        <v>0.9994008541107178</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Forward Obstacle Sensing not Responding</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>Compass error, calibration required</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>['Normal', 'SoftwareFault']</t>
-        </is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="E64" t="b">
+        <v>0</v>
+      </c>
+      <c r="F64" t="n">
+        <v>0.9972102046012878</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Gimbal Pitch Limit Reached.</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>['HardwareFault']</t>
+          <t>Compass Error.</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>['Normal', 'HardwareFault']</t>
-        </is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E65" t="b">
+        <v>1</v>
+      </c>
+      <c r="F65" t="n">
+        <v>0.999508261680603</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>Compass Error.</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E66" t="b">
+        <v>1</v>
+      </c>
+      <c r="F66" t="n">
+        <v>0.999508261680603</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Ground Plain. Safe to Land.</t>
+          <t>Compass Error. Compass Error. Compass disconnected</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Compass disconnected</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E67" t="b">
+        <v>1</v>
+      </c>
+      <c r="F67" t="n">
+        <v>0.9994058609008789</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>['Normal', 'ParamViolation']</t>
+          <t>Compass Error.</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 0]</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E68" t="b">
+        <v>1</v>
+      </c>
+      <c r="F68" t="n">
+        <v>0.999508261680603</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>Magnetic Filed Interference.</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="E69" t="b">
+        <v>1</v>
+      </c>
+      <c r="F69" t="n">
+        <v>0.9997404217720032</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+          <t>Compass Error. Magnetic Filed Interference. Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>Exit P-GPS Mode</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E70" t="b">
+        <v>1</v>
+      </c>
+      <c r="F70" t="n">
+        <v>0.999891996383667</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Compass initialization failed.</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E71" t="b">
+        <v>0</v>
+      </c>
+      <c r="F71" t="n">
+        <v>0.9994553923606873</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Home Point Updated.</t>
+          <t>Compass initialization failed. Restart aircraft</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Restart aircraft</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E72" t="b">
+        <v>1</v>
+      </c>
+      <c r="F72" t="n">
+        <v>0.9998148083686829</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>IMU attitude restricted. Ensure aircraft is level</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>['Normal', 'ParamViolation']</t>
+          <t>Critical low battery.</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 0]</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E73" t="b">
+        <v>1</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.9995651841163635</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>IMU not calibrated. Calibrate IMU</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>Aircraft in Auto Power Off Protection.</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E74" t="b">
+        <v>1</v>
+      </c>
+      <c r="F74" t="n">
+        <v>0.9999067783355713</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Landing Canceled.</t>
+          <t>Critical low battery. Aircraft in Auto Power Off Protection. Forced landing in progress</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Forced landing in progress</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75" t="n">
+        <v>0.9998799562454224</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Landing Gear Paused.</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Critical low battery.</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" t="n">
+        <v>0.9995651841163635</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Landing Gear Raising. Home Point Recorded</t>
+          <t>Critical low battery. Aircraft landing automatically</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Aircraft landing automatically</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E77" t="b">
+        <v>1</v>
+      </c>
+      <c r="F77" t="n">
+        <v>0.9998577833175659</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Landing gear function restored</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Critical low battery.</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" t="n">
+        <v>0.9995651841163635</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+          <t>Critical low battery. Return to home or land promptly</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Return to home or land promptly</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" t="n">
+        <v>0.9999010562896729</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Low Power. Aircraft is returning to the Home Point.</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>Critically low power.</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.9995595812797546</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Low Power. Returning home.</t>
+          <t>Critically low power. Aircraft is landing</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>Aircraft is landing</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81" t="n">
+        <v>0.9998599290847778</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault', 'SurroundingEnvironment']</t>
+          <t>Critically Low Power.</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>[1, 1, 1, 0, 0, 0, 0]</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E82" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82" t="n">
+        <v>0.9995595812797546</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Manned aircraft detected nearby. Fly with caution</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>Aircraft Landing.</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E83" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83" t="n">
+        <v>0.9998598098754883</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>['Normal', 'ParamViolation']</t>
+          <t>Aircraft Landing.</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E84" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84" t="n">
+        <v>0.9998598098754883</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+          <t>Critically Low Power. Aircraft Landing. Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>['Normal', 'ParamViolation']</t>
+          <t>Throttle up to reduce the speed of descent and use sticks to avoid obstacles</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85" t="n">
+        <v>0.9999215602874756</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>['Normal', 'ParamViolation']</t>
+          <t>Critically Low Voltage Warning.</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 0]</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86" t="n">
+        <v>0.9995860457420349</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+          <t>Critically Low Voltage Warning. Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>['Normal', 'ParamViolation']</t>
+          <t>Aircraft will be forced to land</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 1, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E87" t="b">
+        <v>1</v>
+      </c>
+      <c r="F87" t="n">
+        <v>0.9998981952667236</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>Critically Low Voltage.</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88" t="n">
+        <v>0.9995554089546204</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+          <t>Critically Low Voltage. Aircraft will land</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>['SoftwareFault']</t>
+          <t>Aircraft will land</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E89" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89" t="n">
+        <v>0.9998586177825928</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>['Normal', 'HardwareFault']</t>
+          <t>Data Recorder File Index is 15.</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90" t="n">
+        <v>0.9999043941497803</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Motors Started.</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Data Recorder File Index is 17.</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91" t="n">
+        <v>0.9999046325683594</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>Data Recorder File Index is 30.</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92" t="n">
+        <v>0.9999047517776489</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>No GPS signal. Unable to hover. Fly with caution</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>Data Recorder File Index is 45.</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E93" t="b">
+        <v>1</v>
+      </c>
+      <c r="F93" t="n">
+        <v>0.9999047517776489</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Data Recorder File Index is 46.</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
+      <c r="F94" t="n">
+        <v>0.9999043941497803</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Data Recorder File Index is 65.</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+      <c r="F95" t="n">
+        <v>0.9999043941497803</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Precision Landing</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Disable SD card read and write protection or change card</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96" t="n">
+        <v>0.9999195337295532</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>QuickShot has ended</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Downlink Lost.</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>CommunicationIssue</t>
+        </is>
+      </c>
+      <c r="E97" t="b">
+        <v>1</v>
+      </c>
+      <c r="F97" t="n">
+        <v>0.9988749623298645</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>RTH : Ascending to RTH altitude.</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Downlink Restored (after 0m 2.9s).</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E98" t="b">
+        <v>1</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.9999179840087891</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>RTH : Heading alignment.</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Drone is Vibrating</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E99" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99" t="n">
+        <v>0.9997219443321228</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>RTH Altitude : 65FT.</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Entered Cruise Control mode.</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E100" t="b">
+        <v>1</v>
+      </c>
+      <c r="F100" t="n">
+        <v>0.9998930692672729</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>RTH Altitude : 98FT.</t>
+          <t>Entered Cruise Control mode. Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Press C1 or C2 to exit</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101" t="n">
+        <v>0.9998993873596191</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Recenter Gimbal Pan</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Excessive attitude angle detected</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>ParamViolation</t>
+        </is>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" t="n">
+        <v>0.996188223361969</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Rectifying aircraft position</t>
+          <t>Excessive attitude angle detected, forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>forward obstacle avoidance has stopped working</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="E103" t="b">
+        <v>1</v>
+      </c>
+      <c r="F103" t="n">
+        <v>0.9996194839477539</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+          <t>Exit Backward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>['Normal', 'SurroundingEnvironment']</t>
+          <t>Exit Backward Sensing system</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E104" t="b">
+        <v>1</v>
+      </c>
+      <c r="F104" t="n">
+        <v>0.9998805522918701</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 65FT</t>
+          <t>Exit Backward Sensing system, Ambient Light is too weak</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Ambient Light is too weak</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="E105" t="b">
+        <v>1</v>
+      </c>
+      <c r="F105" t="n">
+        <v>0.9997677206993103</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Return-to-Home Altitude : 98FT.</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Exited Visual Avoidance System.</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E106" t="b">
+        <v>1</v>
+      </c>
+      <c r="F106" t="n">
+        <v>0.9998925924301147</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Signal Lost. Aircraft returning to Home Point</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>['CommunicationIssue', 'Normal']</t>
+          <t>Exiting GPS mode: Unknown Error</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 1, 0]</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="E107" t="b">
+        <v>1</v>
+      </c>
+      <c r="F107" t="n">
+        <v>0.9996689558029175</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Sprayer turned ON</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Extra payload detected.</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>ParamViolation</t>
+        </is>
+      </c>
+      <c r="E108" t="b">
+        <v>1</v>
+      </c>
+      <c r="F108" t="n">
+        <v>0.9997023940086365</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault', 'SurroundingEnvironment']</t>
+          <t>Flight performance will be affected.</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 1]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E109" t="b">
+        <v>1</v>
+      </c>
+      <c r="F109" t="n">
+        <v>0.9999021291732788</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Switched to S (Sport)-mode.</t>
+          <t>Extra payload detected. Flight performance will be affected. Fly with caution</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+      <c r="F110" t="n">
+        <v>0.9998596906661987</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Switched to T (Tripod)-mode.</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Forward Obstacle Sensing is not functioning.</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="E111" t="b">
+        <v>1</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.9997084736824036</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Take off in P-Mode</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Forward Obstacle Sensing not Responding</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.9996324777603149</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Vision sensor error. Contact DJI Support for assistance</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>Gimbal motor overloaded.</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E113" t="b">
+        <v>1</v>
+      </c>
+      <c r="F113" t="n">
+        <v>0.9996194839477539</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Vision systems and obstacle avoidance disabled</t>
+          <t>Gimbal motor overloaded. Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Check whether gimbal can rotate freely</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E114" t="b">
+        <v>1</v>
+      </c>
+      <c r="F114" t="n">
+        <v>0.9999103546142578</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Waypoint Mission Paused</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>['Normal']</t>
+          <t>Gimbal Pitch Limit Reached.</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E115" t="b">
+        <v>1</v>
+      </c>
+      <c r="F115" t="n">
+        <v>0.9996154308319092</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>['Normal', 'SoftwareFault']</t>
+          <t>Ground Plain.</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E116" t="b">
+        <v>1</v>
+      </c>
+      <c r="F116" t="n">
+        <v>0.9998582601547241</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Weak signal. Adjust antennas</t>
+          <t>Ground Plain. Safe to Land.</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>['CommunicationIssue', 'Normal']</t>
+          <t>Safe to Land.</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 1, 0]</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E117" t="b">
+        <v>1</v>
+      </c>
+      <c r="F117" t="n">
+        <v>0.9998792409896851</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>High altitude.</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>ParamViolation</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>ParamViolation</t>
+        </is>
+      </c>
+      <c r="E118" t="b">
+        <v>1</v>
+      </c>
+      <c r="F118" t="n">
+        <v>0.9949204325675964</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Aircraft braking distance increased and flight time decreased.</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>ParamViolation</t>
+        </is>
+      </c>
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
+      <c r="F119" t="n">
+        <v>0.7847347855567932</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>High altitude. Aircraft braking distance increased and flight time decreased. Fly with caution</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Fly with caution</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E120" t="b">
+        <v>1</v>
+      </c>
+      <c r="F120" t="n">
+        <v>0.9998596906661987</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>High wind velocity.</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="E121" t="b">
+        <v>1</v>
+      </c>
+      <c r="F121" t="n">
+        <v>0.9997476935386658</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution.</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Ensure the aircraft remains within your line of sight and fly with caution.</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E122" t="b">
+        <v>1</v>
+      </c>
+      <c r="F122" t="n">
+        <v>0.9999188184738159</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>High wind velocity.</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="E123" t="b">
+        <v>1</v>
+      </c>
+      <c r="F123" t="n">
+        <v>0.9997476935386658</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Ensure the aircraft remains within your line of sight and fly with caution.</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E124" t="b">
+        <v>1</v>
+      </c>
+      <c r="F124" t="n">
+        <v>0.9999188184738159</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>High wind velocity.</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="E125" t="b">
+        <v>1</v>
+      </c>
+      <c r="F125" t="n">
+        <v>0.9997476935386658</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>High wind velocity. Ensure the aircraft remains within your line of sight and fly with caution. High wind velocity. Fly with caution and land in a safe place ASAP.</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Fly with caution and land in a safe place ASAP.</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E126" t="b">
+        <v>1</v>
+      </c>
+      <c r="F126" t="n">
+        <v>0.9999185800552368</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>High-altitude flight</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>ParamViolation</t>
+        </is>
+      </c>
+      <c r="E127" t="b">
+        <v>0</v>
+      </c>
+      <c r="F127" t="n">
+        <v>0.9958831071853638</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Fly with caution</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E128" t="b">
+        <v>1</v>
+      </c>
+      <c r="F128" t="n">
+        <v>0.9998596906661987</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>aircraft braking distance is extended</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>ParamViolation</t>
+        </is>
+      </c>
+      <c r="E129" t="b">
+        <v>0</v>
+      </c>
+      <c r="F129" t="n">
+        <v>0.9996843338012695</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>High-altitude flight, aircraft braking distance is extended, flight time is shortened. Fly with caution</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>flight time is shortened.</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>ParamViolation</t>
+        </is>
+      </c>
+      <c r="E130" t="b">
+        <v>0</v>
+      </c>
+      <c r="F130" t="n">
+        <v>0.9966694712638855</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Home Point Updated.</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Home Point Updated.</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E131" t="b">
+        <v>1</v>
+      </c>
+      <c r="F131" t="n">
+        <v>0.9998816251754761</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>IMU attitude restricted.</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>ParamViolation</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="E132" t="b">
+        <v>0</v>
+      </c>
+      <c r="F132" t="n">
+        <v>0.9977869987487793</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>IMU attitude restricted. Ensure aircraft is level</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Ensure aircraft is level</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E133" t="b">
+        <v>1</v>
+      </c>
+      <c r="F133" t="n">
+        <v>0.9998799562454224</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>IMU not calibrated. Calibrate IMU</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>IMU not calibrated.</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E134" t="b">
+        <v>0</v>
+      </c>
+      <c r="F134" t="n">
+        <v>0.9999067783355713</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>IMU not calibrated. Calibrate IMU</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Calibrate IMU</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E135" t="b">
+        <v>1</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.9998925924301147</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Landing Canceled.</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Landing Canceled.</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E136" t="b">
+        <v>1</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.9998470544815063</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Landing gear function restored</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Landing gear function restored</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E137" t="b">
+        <v>1</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.9998809099197388</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Landing Gear Paused.</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Landing Gear Paused.</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E138" t="b">
+        <v>1</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.9998797178268433</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Landing Gear Raising. Home Point Recorded</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Landing Gear Raising.</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E139" t="b">
+        <v>1</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.9998816251754761</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Landing Gear Raising. Home Point Recorded</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Home Point Recorded</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E140" t="b">
+        <v>1</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.9998623132705688</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Live stream video frame rate less than 9Hz.</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="E141" t="b">
+        <v>0</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.9688822627067566</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Live stream video frame rate less than 9Hz. Fly with caution</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Fly with caution</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E142" t="b">
+        <v>1</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.9998596906661987</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Low Power.</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E143" t="b">
+        <v>1</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.9995057582855225</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Low Power. Aircraft is returning to the Home Point.</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Aircraft is returning to the Home Point.</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E144" t="b">
+        <v>1</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.9999089241027832</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Low Power. Returning home.</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Low Power.</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E145" t="b">
+        <v>1</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.9995057582855225</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Low Power. Returning home.</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Returning home.</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E146" t="b">
+        <v>1</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.9998582601547241</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Magnetic Filed Interference.</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="E147" t="b">
+        <v>1</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.9997404217720032</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Exit P-GPS Mode.</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E148" t="b">
+        <v>1</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.9998996257781982</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Magnetic Filed Interference. Exit P-GPS Mode. Yaw Error.</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Yaw Error.</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E149" t="b">
+        <v>1</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.9995439648628235</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Manned aircraft detected nearby.</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="E150" t="b">
+        <v>1</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.9995073080062866</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Manned aircraft detected nearby. Fly with caution</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Fly with caution</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E151" t="b">
+        <v>1</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.9998596906661987</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Max Altitude Approached.</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>ParamViolation</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E152" t="b">
+        <v>0</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.9975551962852478</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Max Altitude Approached. Wait for the GPS satellite signal recovery before ascend</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Wait for the GPS satellite signal recovery before ascend</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E153" t="b">
+        <v>1</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.999916672706604</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Max Flight Altitude Reached.</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>ParamViolation</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>ParamViolation</t>
+        </is>
+      </c>
+      <c r="E154" t="b">
+        <v>1</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.9997153878211975</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Max Flight Altitude Reached. Adjust in Main Controller Settings if necessary</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Adjust in Main Controller Settings if necessary</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E155" t="b">
+        <v>1</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.9999076128005981</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Max Flight Distance Reached.</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>ParamViolation</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>ParamViolation</t>
+        </is>
+      </c>
+      <c r="E156" t="b">
+        <v>1</v>
+      </c>
+      <c r="F156" t="n">
+        <v>0.9997122883796692</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Max Flight Distance Reached. Adjust in Main Controller Settings if necessary.</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Adjust in Main Controller Settings if necessary.</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E157" t="b">
+        <v>1</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.9999110698699951</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Maximum flight distance reached.</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>ParamViolation</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>ParamViolation</t>
+        </is>
+      </c>
+      <c r="E158" t="b">
+        <v>1</v>
+      </c>
+      <c r="F158" t="n">
+        <v>0.9997116923332214</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Maximum flight distance reached. Adjust the distance in MC Settings if required.</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Adjust the distance in MC Settings if required.</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E159" t="b">
+        <v>1</v>
+      </c>
+      <c r="F159" t="n">
+        <v>0.9999122619628906</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Mobile device CPU fully loaded.</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E160" t="b">
+        <v>1</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.9995711445808411</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Mobile device CPU fully loaded. Related performance will be affected.</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Related performance will be affected.</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E161" t="b">
+        <v>1</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.9999011754989624</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Mobile device version too old to support HD image transmission and the image transmission mode has been switch to normal mode.</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E162" t="b">
+        <v>0</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.9488850831985474</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Motor is Blocked.</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E163" t="b">
+        <v>1</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.9998806715011597</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Motor stuck.</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E164" t="b">
+        <v>1</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.9995008707046509</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Motor is Blocked. Motor stuck. Check for objects blocking motor or contact DJI Support for assistance</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Check for objects blocking motor or contact DJI Support for assistance</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E165" t="b">
+        <v>1</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.999919056892395</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Motors Started.</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Motors Started.</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E166" t="b">
+        <v>1</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.9995688796043396</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>No GPS signal.</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="E167" t="b">
+        <v>1</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.9995860457420349</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Aircraft unable to hover.</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E168" t="b">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.9996122717857361</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>No GPS signal. Aircraft unable to hover. Fly with caution</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Fly with caution</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E169" t="b">
+        <v>1</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.9998596906661987</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>No GPS signal.</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="E170" t="b">
+        <v>1</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.9995860457420349</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Unable to hover.</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E171" t="b">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.9995883107185364</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>No GPS signal. Unable to hover. Fly with caution</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Fly with caution</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E172" t="b">
+        <v>1</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.9998596906661987</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Obstacle Avoidance Disabled.</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E173" t="b">
+        <v>1</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.999881386756897</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Landing gear lowered.</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E174" t="b">
+        <v>1</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0.9998809099197388</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Obstacle Avoidance Disabled. Landing gear lowered. Obstacle Avoidance Disabled.</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Obstacle Avoidance Disabled.</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E175" t="b">
+        <v>1</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.999881386756897</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Obstacle Avoidance disabled.</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E176" t="b">
+        <v>1</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0.999881386756897</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Landing gear lowered.</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E177" t="b">
+        <v>1</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.9998809099197388</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Obstacle Avoidance disabled. Landing gear lowered. Obstacle Avoidance has been disabled.</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Obstacle Avoidance has been disabled.</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E178" t="b">
+        <v>1</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0.9999011754989624</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Precision Landing</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Precision Landing</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E179" t="b">
+        <v>1</v>
+      </c>
+      <c r="F179" t="n">
+        <v>0.9998160004615784</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>QuickShot has ended</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>QuickShot has ended</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E180" t="b">
+        <v>1</v>
+      </c>
+      <c r="F180" t="n">
+        <v>0.9998818635940552</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Recenter Gimbal Pan</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Recenter Gimbal Pan</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E181" t="b">
+        <v>1</v>
+      </c>
+      <c r="F181" t="n">
+        <v>0.9999022483825684</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Rectifying aircraft position</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Rectifying aircraft position</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E182" t="b">
+        <v>1</v>
+      </c>
+      <c r="F182" t="n">
+        <v>0.9998921155929565</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Remote controller in high interference environment.</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="E183" t="b">
+        <v>1</v>
+      </c>
+      <c r="F183" t="n">
+        <v>0.9997617602348328</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Remote controller in high interference environment. Manually adjust flight route or return to home</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Manually adjust flight route or return to home</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E184" t="b">
+        <v>1</v>
+      </c>
+      <c r="F184" t="n">
+        <v>0.9999111890792847</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Return-to-Home Altitude : 65FT</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Return-to-Home Altitude : 65FT</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E185" t="b">
+        <v>1</v>
+      </c>
+      <c r="F185" t="n">
+        <v>0.9999099969863892</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Return-to-Home Altitude : 98FT.</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Return-to-Home Altitude : 98FT.</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E186" t="b">
+        <v>1</v>
+      </c>
+      <c r="F186" t="n">
+        <v>0.9999115467071533</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>RTH : Ascending to RTH altitude.</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>RTH : Ascending to RTH altitude.</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E187" t="b">
+        <v>1</v>
+      </c>
+      <c r="F187" t="n">
+        <v>0.9999116659164429</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>RTH : Heading alignment.</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>RTH : Heading alignment.</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E188" t="b">
+        <v>1</v>
+      </c>
+      <c r="F188" t="n">
+        <v>0.9998996257781982</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>RTH Altitude : 65FT.</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>RTH Altitude : 65FT.</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E189" t="b">
+        <v>1</v>
+      </c>
+      <c r="F189" t="n">
+        <v>0.999903678894043</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>RTH Altitude : 98FT.</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>RTH Altitude : 98FT.</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E190" t="b">
+        <v>1</v>
+      </c>
+      <c r="F190" t="n">
+        <v>0.999903678894043</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Signal Lost.</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>CommunicationIssue</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>CommunicationIssue</t>
+        </is>
+      </c>
+      <c r="E191" t="b">
+        <v>1</v>
+      </c>
+      <c r="F191" t="n">
+        <v>0.9986452460289001</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Signal Lost. Aircraft returning to Home Point</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Aircraft returning to Home Point</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E192" t="b">
+        <v>1</v>
+      </c>
+      <c r="F192" t="n">
+        <v>0.9998933076858521</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Sprayer turned ON</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Sprayer turned ON</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E193" t="b">
+        <v>1</v>
+      </c>
+      <c r="F193" t="n">
+        <v>0.9998835325241089</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Strong wind warning.</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>SurroundingEnvironment</t>
+        </is>
+      </c>
+      <c r="E194" t="b">
+        <v>1</v>
+      </c>
+      <c r="F194" t="n">
+        <v>0.9997057318687439</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Aircraft unable to return to home automatically.</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="E195" t="b">
+        <v>1</v>
+      </c>
+      <c r="F195" t="n">
+        <v>0.9997144341468811</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Strong wind warning. Aircraft unable to return to home automatically. Lower altitude immediately and return to home manually</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Lower altitude immediately and return to home manually</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E196" t="b">
+        <v>1</v>
+      </c>
+      <c r="F196" t="n">
+        <v>0.9999125003814697</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Switched to S (Sport)-mode.</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Switched to S (Sport)-mode.</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E197" t="b">
+        <v>1</v>
+      </c>
+      <c r="F197" t="n">
+        <v>0.9999126195907593</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Switched to T (Tripod)-mode.</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Switched to T (Tripod)-mode.</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E198" t="b">
+        <v>1</v>
+      </c>
+      <c r="F198" t="n">
+        <v>0.9999141693115234</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Take off in P-Mode</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Take off in P-Mode</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E199" t="b">
+        <v>1</v>
+      </c>
+      <c r="F199" t="n">
+        <v>0.99989914894104</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Vision sensor error.</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>HardwareFault</t>
+        </is>
+      </c>
+      <c r="E200" t="b">
+        <v>0</v>
+      </c>
+      <c r="F200" t="n">
+        <v>0.999078631401062</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Vision sensor error. Contact DJI Support for assistance</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Contact DJI Support for assistance</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E201" t="b">
+        <v>1</v>
+      </c>
+      <c r="F201" t="n">
+        <v>0.9998997449874878</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Vision systems and obstacle avoidance disabled</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Vision systems and obstacle avoidance disabled</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E202" t="b">
+        <v>1</v>
+      </c>
+      <c r="F202" t="n">
+        <v>0.9999035596847534</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Waypoint Mission Paused</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Waypoint Mission Paused</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E203" t="b">
+        <v>1</v>
+      </c>
+      <c r="F203" t="n">
+        <v>0.9998804330825806</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Weak GPS signal.</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>SoftwareFault</t>
+        </is>
+      </c>
+      <c r="E204" t="b">
+        <v>1</v>
+      </c>
+      <c r="F204" t="n">
+        <v>0.9995694756507874</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Aircraft is in Attitude mode and hovering may be unstable.</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E205" t="b">
+        <v>1</v>
+      </c>
+      <c r="F205" t="n">
+        <v>0.9999171495437622</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Weak GPS signal. Aircraft is in Attitude mode and hovering may be unstable. Fly with caution.</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Fly with caution.</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E206" t="b">
+        <v>1</v>
+      </c>
+      <c r="F206" t="n">
+        <v>0.9998799562454224</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Weak signal. Adjust antennas</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Weak signal.</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>CommunicationIssue</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>CommunicationIssue</t>
+        </is>
+      </c>
+      <c r="E207" t="b">
+        <v>1</v>
+      </c>
+      <c r="F207" t="n">
+        <v>0.9989363551139832</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Weak signal. Adjust antennas</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Adjust antennas</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E208" t="b">
+        <v>1</v>
+      </c>
+      <c r="F208" t="n">
+        <v>0.9998167157173157</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
           <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
         </is>
       </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>['Normal', 'RegulationViolation']</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>[1, 0, 0, 0, 1, 0, 0]</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>['Normal']</t>
-        </is>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Your aircraft is flying in an Altitude Zone (nnn).</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>RegulationViolation</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>RegulationViolation</t>
+        </is>
+      </c>
+      <c r="E209" t="b">
+        <v>1</v>
+      </c>
+      <c r="F209" t="n">
+        <v>0.9965914487838745</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Your aircraft is flying in an Altitude Zone (nnn). Please fly with caution</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Please fly with caution</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="E210" t="b">
+        <v>1</v>
+      </c>
+      <c r="F210" t="n">
+        <v>0.9998798370361328</v>
       </c>
     </row>
   </sheetData>
